--- a/forecast_summary_B0BTTZFQTP.xlsx
+++ b/forecast_summary_B0BTTZFQTP.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>228.1189226363582</v>
       </c>
       <c r="D2" t="n">
-        <v>301.7408475201809</v>
+        <v>294.557215224595</v>
       </c>
       <c r="E2" t="n">
         <v>123</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>266.0786526379588</v>
       </c>
       <c r="D3" t="n">
-        <v>334.0777374447501</v>
+        <v>333.8884656264819</v>
       </c>
       <c r="E3" t="n">
         <v>109</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" t="n">
         <v>271.9063063814603</v>
       </c>
       <c r="D4" t="n">
-        <v>340.708277577068</v>
+        <v>336.5456287557304</v>
       </c>
       <c r="E4" t="n">
         <v>143</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>246.6756862722274</v>
       </c>
       <c r="D5" t="n">
-        <v>322.7994143376845</v>
+        <v>315.4734510623437</v>
       </c>
       <c r="E5" t="n">
         <v>104</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>210.8318645584366</v>
       </c>
       <c r="D6" t="n">
-        <v>279.1449984819739</v>
+        <v>282.7038027376975</v>
       </c>
       <c r="E6" t="n">
         <v>90</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" t="n">
         <v>182.6209199273149</v>
       </c>
       <c r="D7" t="n">
-        <v>251.3076229193157</v>
+        <v>257.8428355484367</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>165.4574643299282</v>
       </c>
       <c r="D8" t="n">
-        <v>236.9396632399304</v>
+        <v>225.8010407926105</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>155.5663328152609</v>
       </c>
       <c r="D9" t="n">
-        <v>224.9039669178905</v>
+        <v>228.286462502583</v>
       </c>
       <c r="E9" t="n">
         <v>97</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="n">
         <v>153.5521497634317</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2379700092741</v>
+        <v>227.684346298891</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>162.0488722558304</v>
       </c>
       <c r="D11" t="n">
-        <v>232.7099521686369</v>
+        <v>231.4568819065097</v>
       </c>
       <c r="E11" t="n">
         <v>91</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>175.2324415085399</v>
       </c>
       <c r="D12" t="n">
-        <v>244.4919811091756</v>
+        <v>243.3532569158587</v>
       </c>
       <c r="E12" t="n">
         <v>93</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C13" t="n">
         <v>179.3311810315753</v>
       </c>
       <c r="D13" t="n">
-        <v>248.3216968398982</v>
+        <v>252.1687370560355</v>
       </c>
       <c r="E13" t="n">
         <v>96</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" t="n">
         <v>167.1675313693709</v>
       </c>
       <c r="D14" t="n">
-        <v>232.1515679761006</v>
+        <v>242.3002884004044</v>
       </c>
       <c r="E14" t="n">
         <v>89</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="n">
         <v>147.5603100907508</v>
       </c>
       <c r="D15" t="n">
-        <v>216.310345547081</v>
+        <v>217.0643930876308</v>
       </c>
       <c r="E15" t="n">
         <v>87</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" t="n">
         <v>134.7937180880299</v>
       </c>
       <c r="D16" t="n">
-        <v>205.7870420669809</v>
+        <v>199.2136120491413</v>
       </c>
       <c r="E16" t="n">
         <v>85</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>130.1234972382414</v>
       </c>
       <c r="D17" t="n">
-        <v>203.4237037393894</v>
+        <v>194.9647449775789</v>
       </c>
       <c r="E17" t="n">
         <v>83</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>119.9072639515401</v>
       </c>
       <c r="D18" t="n">
-        <v>194.6304169144082</v>
+        <v>186.5058956573714</v>
       </c>
       <c r="E18" t="n">
         <v>78</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>94.33851817321971</v>
       </c>
       <c r="D19" t="n">
-        <v>162.8209867123199</v>
+        <v>165.692638993855</v>
       </c>
       <c r="E19" t="n">
         <v>75</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>62.87944654095819</v>
       </c>
       <c r="D20" t="n">
-        <v>135.3338812150139</v>
+        <v>136.5335766047616</v>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>45.05967736787518</v>
       </c>
       <c r="D21" t="n">
-        <v>115.4387244022807</v>
+        <v>118.4761571959952</v>
       </c>
       <c r="E21" t="n">
         <v>74</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550M K</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3089</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1782</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1040</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>278</t>
         </is>
       </c>
     </row>
